--- a/app/Template/Template_no_salary.xlsx
+++ b/app/Template/Template_no_salary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{020E93F0-392A-4DA5-B548-E0E149373F9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0BA187-5B16-4E15-8D3E-C9F882D0CC18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FAA5F786-5D5F-4AEA-942D-E3E2443761E4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>รหัสพนักงาน</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>โครงสร้างเงินเดือน</t>
+  </si>
+  <si>
+    <t>รหัสหัวหน้า</t>
+  </si>
+  <si>
+    <t>สรุปเกรดที่ได้</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -422,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEBE30D-847B-4585-8955-79D480F10E29}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,20 +441,28 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
